--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.953471</v>
+        <v>5.516293333333333</v>
       </c>
       <c r="H2">
-        <v>32.86041299999999</v>
+        <v>16.54888</v>
       </c>
       <c r="I2">
-        <v>0.1262416469639394</v>
+        <v>0.02672612669241994</v>
       </c>
       <c r="J2">
-        <v>0.1262416469639394</v>
+        <v>0.02672612669241994</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>13.92410533333333</v>
+        <v>0.004819666666666667</v>
       </c>
       <c r="N2">
-        <v>41.772316</v>
+        <v>0.014459</v>
       </c>
       <c r="O2">
-        <v>0.9926481335887254</v>
+        <v>0.04945987179224048</v>
       </c>
       <c r="P2">
-        <v>0.9926481335887255</v>
+        <v>0.04945987179224049</v>
       </c>
       <c r="Q2">
-        <v>152.517283969612</v>
+        <v>0.02658669510222222</v>
       </c>
       <c r="R2">
-        <v>1372.655555726508</v>
+        <v>0.23928025592</v>
       </c>
       <c r="S2">
-        <v>0.1253135352399213</v>
+        <v>0.001321870799710267</v>
       </c>
       <c r="T2">
-        <v>0.1253135352399213</v>
+        <v>0.001321870799710267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.953471</v>
+        <v>5.516293333333333</v>
       </c>
       <c r="H3">
-        <v>32.86041299999999</v>
+        <v>16.54888</v>
       </c>
       <c r="I3">
-        <v>0.1262416469639394</v>
+        <v>0.02672612669241994</v>
       </c>
       <c r="J3">
-        <v>0.1262416469639394</v>
+        <v>0.02672612669241994</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.150703</v>
       </c>
       <c r="O3">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="P3">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="Q3">
-        <v>0.5502403133709999</v>
+        <v>0.2771073180711111</v>
       </c>
       <c r="R3">
-        <v>4.952162820338999</v>
+        <v>2.49396586264</v>
       </c>
       <c r="S3">
-        <v>0.0004520966877024931</v>
+        <v>0.0137775707261039</v>
       </c>
       <c r="T3">
-        <v>0.0004520966877024931</v>
+        <v>0.0137775707261039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.516293333333333</v>
+      </c>
+      <c r="H4">
+        <v>16.54888</v>
+      </c>
+      <c r="I4">
+        <v>0.02672612669241994</v>
+      </c>
+      <c r="J4">
+        <v>0.02672612669241994</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>10.953471</v>
-      </c>
-      <c r="H4">
-        <v>32.86041299999999</v>
-      </c>
-      <c r="I4">
-        <v>0.1262416469639394</v>
-      </c>
-      <c r="J4">
-        <v>0.1262416469639394</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.052892</v>
+        <v>0.04239200000000001</v>
       </c>
       <c r="N4">
-        <v>0.158676</v>
+        <v>0.127176</v>
       </c>
       <c r="O4">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="P4">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="Q4">
-        <v>0.5793509881319999</v>
+        <v>0.2338467069866667</v>
       </c>
       <c r="R4">
-        <v>5.214158893187999</v>
+        <v>2.10462036288</v>
       </c>
       <c r="S4">
-        <v>0.0004760150363156725</v>
+        <v>0.01162668516660578</v>
       </c>
       <c r="T4">
-        <v>0.0004760150363156725</v>
+        <v>0.01162668516660578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>13.359309</v>
       </c>
       <c r="I5">
-        <v>0.05132318849614514</v>
+        <v>0.02157503014446814</v>
       </c>
       <c r="J5">
-        <v>0.05132318849614516</v>
+        <v>0.02157503014446814</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.92410533333333</v>
+        <v>0.004819666666666667</v>
       </c>
       <c r="N5">
-        <v>41.772316</v>
+        <v>0.014459</v>
       </c>
       <c r="O5">
-        <v>0.9926481335887254</v>
+        <v>0.04945987179224048</v>
       </c>
       <c r="P5">
-        <v>0.9926481335887255</v>
+        <v>0.04945987179224049</v>
       </c>
       <c r="Q5">
-        <v>62.00547523218265</v>
+        <v>0.02146247209233333</v>
       </c>
       <c r="R5">
-        <v>558.049277089644</v>
+        <v>0.193162248831</v>
       </c>
       <c r="S5">
-        <v>0.05094586727052082</v>
+        <v>0.001067098224859118</v>
       </c>
       <c r="T5">
-        <v>0.05094586727052084</v>
+        <v>0.001067098224859118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>13.359309</v>
       </c>
       <c r="I6">
-        <v>0.05132318849614514</v>
+        <v>0.02157503014446814</v>
       </c>
       <c r="J6">
-        <v>0.05132318849614516</v>
+        <v>0.02157503014446814</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.150703</v>
       </c>
       <c r="O6">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="P6">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="Q6">
         <v>0.2236986604696666</v>
@@ -818,10 +818,10 @@
         <v>2.013287944227</v>
       </c>
       <c r="S6">
-        <v>0.0001837986439456529</v>
+        <v>0.01112213180586096</v>
       </c>
       <c r="T6">
-        <v>0.0001837986439456529</v>
+        <v>0.01112213180586096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>13.359309</v>
       </c>
       <c r="I7">
-        <v>0.05132318849614514</v>
+        <v>0.02157503014446814</v>
       </c>
       <c r="J7">
-        <v>0.05132318849614516</v>
+        <v>0.02157503014446814</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.052892</v>
+        <v>0.04239200000000001</v>
       </c>
       <c r="N7">
-        <v>0.158676</v>
+        <v>0.127176</v>
       </c>
       <c r="O7">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="P7">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="Q7">
-        <v>0.235533523876</v>
+        <v>0.188775942376</v>
       </c>
       <c r="R7">
-        <v>2.119801714884</v>
+        <v>1.698983481384</v>
       </c>
       <c r="S7">
-        <v>0.0001935225816786688</v>
+        <v>0.009385800113748061</v>
       </c>
       <c r="T7">
-        <v>0.0001935225816786689</v>
+        <v>0.009385800113748061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.35933299999999</v>
+        <v>196.4313813333333</v>
       </c>
       <c r="H8">
-        <v>214.077999</v>
+        <v>589.294144</v>
       </c>
       <c r="I8">
-        <v>0.8224351645399154</v>
+        <v>0.9516988431631119</v>
       </c>
       <c r="J8">
-        <v>0.8224351645399155</v>
+        <v>0.9516988431631119</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.92410533333333</v>
+        <v>0.004819666666666667</v>
       </c>
       <c r="N8">
-        <v>41.772316</v>
+        <v>0.014459</v>
       </c>
       <c r="O8">
-        <v>0.9926481335887254</v>
+        <v>0.04945987179224048</v>
       </c>
       <c r="P8">
-        <v>0.9926481335887255</v>
+        <v>0.04945987179224049</v>
       </c>
       <c r="Q8">
-        <v>993.6148692084091</v>
+        <v>0.9467337808995555</v>
       </c>
       <c r="R8">
-        <v>8942.533822875683</v>
+        <v>8.520604028095999</v>
       </c>
       <c r="S8">
-        <v>0.8163887310782832</v>
+        <v>0.0470709027676711</v>
       </c>
       <c r="T8">
-        <v>0.8163887310782835</v>
+        <v>0.04707090276767111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.35933299999999</v>
+        <v>196.4313813333333</v>
       </c>
       <c r="H9">
-        <v>214.077999</v>
+        <v>589.294144</v>
       </c>
       <c r="I9">
-        <v>0.8224351645399154</v>
+        <v>0.9516988431631119</v>
       </c>
       <c r="J9">
-        <v>0.8224351645399155</v>
+        <v>0.9516988431631119</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.150703</v>
       </c>
       <c r="O9">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="P9">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="Q9">
-        <v>3.584688520366333</v>
+        <v>9.867599487025776</v>
       </c>
       <c r="R9">
-        <v>32.262196683297</v>
+        <v>88.808395383232</v>
       </c>
       <c r="S9">
-        <v>0.002945305473119818</v>
+        <v>0.4906097420151005</v>
       </c>
       <c r="T9">
-        <v>0.002945305473119819</v>
+        <v>0.4906097420151005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.35933299999999</v>
+        <v>196.4313813333333</v>
       </c>
       <c r="H10">
-        <v>214.077999</v>
+        <v>589.294144</v>
       </c>
       <c r="I10">
-        <v>0.8224351645399154</v>
+        <v>0.9516988431631119</v>
       </c>
       <c r="J10">
-        <v>0.8224351645399155</v>
+        <v>0.9516988431631119</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.052892</v>
+        <v>0.04239200000000001</v>
       </c>
       <c r="N10">
-        <v>0.158676</v>
+        <v>0.127176</v>
       </c>
       <c r="O10">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="P10">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="Q10">
-        <v>3.774337841036</v>
+        <v>8.327119117482667</v>
       </c>
       <c r="R10">
-        <v>33.969040569324</v>
+        <v>74.944072057344</v>
       </c>
       <c r="S10">
-        <v>0.003101127988512241</v>
+        <v>0.4140181983803404</v>
       </c>
       <c r="T10">
-        <v>0.003101127988512242</v>
+        <v>0.4140181983803404</v>
       </c>
     </row>
   </sheetData>
